--- a/model/Outputs/8. Fixed RE/With PV/Output Files/40/Output_4_31.xlsx
+++ b/model/Outputs/8. Fixed RE/With PV/Output Files/40/Output_4_31.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3325901.034300589</v>
+        <v>3325901.034300629</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80663.73099500686</v>
+        <v>16052082.46800559</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80663.73099500686</v>
+        <v>16052082.46800559</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>65614.34050177191</v>
+        <v>3940022.790762335</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>65614.34050177191</v>
+        <v>3940022.790762335</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1494247180.596206</v>
+        <v>56687243.12577516</v>
       </c>
     </row>
   </sheetData>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>359.6204767756762</v>
+        <v>359.620476775678</v>
       </c>
       <c r="T2" t="n">
         <v>560.964918411981</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>359.6204767756762</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T5" t="n">
         <v>560.964918411981</v>
@@ -967,7 +967,7 @@
         <v>638.3734759809475</v>
       </c>
       <c r="X5" t="n">
-        <v>592.2818334606677</v>
+        <v>590.8934891676897</v>
       </c>
       <c r="Y5" t="n">
         <v>511.3174326828064</v>
@@ -998,10 +998,10 @@
         <v>322.5970075731406</v>
       </c>
       <c r="H6" t="n">
-        <v>301.8178796392513</v>
+        <v>300.2841796816783</v>
       </c>
       <c r="I6" t="n">
-        <v>107.3959878205679</v>
+        <v>108.929687778141</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T8" t="n">
-        <v>559.576574119003</v>
+        <v>560.964918411981</v>
       </c>
       <c r="U8" t="n">
         <v>648.751427201877</v>
@@ -1384,7 +1384,7 @@
         <v>410.3391557398498</v>
       </c>
       <c r="E11" t="n">
-        <v>402.9749453138904</v>
+        <v>404.3632896068686</v>
       </c>
       <c r="F11" t="n">
         <v>404.8896287080119</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T11" t="n">
         <v>560.964918411981</v>
@@ -1533,70 +1533,70 @@
         </is>
       </c>
       <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>480.6109686625962</v>
+        <v>481.9993129555745</v>
       </c>
       <c r="C14" t="n">
         <v>449.4745782429939</v>
@@ -1630,7 +1630,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H14" t="n">
-        <v>347.8590406130752</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1788,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>67.808644398718</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="I16" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -2025,10 +2025,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>67.808644398718</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="I19" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2104,7 +2104,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H20" t="n">
-        <v>346.4706963206012</v>
+        <v>346.4706963212927</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2341,7 +2341,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H23" t="n">
-        <v>347.8590406130752</v>
+        <v>346.4706963212689</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>359.6204767756762</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T23" t="n">
         <v>560.964918411981</v>
@@ -2450,10 +2450,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S24" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T24" t="n">
         <v>392.6911708778912</v>
@@ -2499,10 +2499,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>67.808644398718</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>481.9993129555745</v>
+        <v>480.6109686630212</v>
       </c>
       <c r="C26" t="n">
         <v>449.4745782429939</v>
@@ -2626,7 +2626,7 @@
         <v>638.3734759809475</v>
       </c>
       <c r="X26" t="n">
-        <v>590.8934891676897</v>
+        <v>592.2818334606677</v>
       </c>
       <c r="Y26" t="n">
         <v>511.3174326828064</v>
@@ -2736,10 +2736,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="I28" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>67.808644398718</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2797,7 +2797,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>481.9993129554181</v>
+        <v>481.9993129555745</v>
       </c>
       <c r="C29" t="n">
         <v>449.4745782428375</v>
@@ -2812,7 +2812,7 @@
         <v>404.8896287078554</v>
       </c>
       <c r="G29" t="n">
-        <v>396.4956611619018</v>
+        <v>397.8840054526889</v>
       </c>
       <c r="H29" t="n">
         <v>347.8590406129188</v>
@@ -2851,7 +2851,7 @@
         <v>361.0088210684981</v>
       </c>
       <c r="T29" t="n">
-        <v>560.9649184118246</v>
+        <v>559.5765741213062</v>
       </c>
       <c r="U29" t="n">
         <v>648.7514272017206</v>
@@ -2894,7 +2894,7 @@
         <v>322.5970075729841</v>
       </c>
       <c r="H30" t="n">
-        <v>301.8178796390949</v>
+        <v>301.8178796392513</v>
       </c>
       <c r="I30" t="n">
         <v>108.9296877779845</v>
@@ -2924,10 +2924,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>352.1613821978832</v>
+        <v>350.6276822438832</v>
       </c>
       <c r="S30" t="n">
-        <v>406.659215104951</v>
+        <v>408.1929150587945</v>
       </c>
       <c r="T30" t="n">
         <v>392.6911708777347</v>
@@ -2973,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767761012</v>
       </c>
       <c r="T32" t="n">
         <v>560.964918411981</v>
@@ -3094,7 +3094,7 @@
         <v>648.751427201877</v>
       </c>
       <c r="V32" t="n">
-        <v>628.4626798738458</v>
+        <v>629.8510241668239</v>
       </c>
       <c r="W32" t="n">
         <v>638.3734759809475</v>
@@ -3210,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>67.808644398718</v>
       </c>
       <c r="I34" t="n">
         <v>97.40414414470841</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>67.808644398718</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3286,10 +3286,10 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G35" t="n">
-        <v>396.4956611598672</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H35" t="n">
-        <v>347.8590406130752</v>
+        <v>346.4706963205223</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3450,7 +3450,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3459,10 +3459,10 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>35.95272115897164</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>480.6109686625962</v>
+        <v>481.9993129555745</v>
       </c>
       <c r="C38" t="n">
         <v>449.4745782429939</v>
@@ -3526,7 +3526,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H38" t="n">
-        <v>347.8590406130752</v>
+        <v>346.4706963202774</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3754,7 +3754,7 @@
         <v>410.3391557398498</v>
       </c>
       <c r="E41" t="n">
-        <v>404.3632896068686</v>
+        <v>402.9749453139518</v>
       </c>
       <c r="F41" t="n">
         <v>404.8896287080119</v>
@@ -3796,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>359.6204767756762</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T41" t="n">
         <v>560.964918411981</v>
@@ -3921,49 +3921,49 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>361.0088210686545</v>
+        <v>359.620476775669</v>
       </c>
       <c r="T44" t="n">
         <v>560.964918411981</v>
@@ -4051,7 +4051,7 @@
         <v>592.2818334606677</v>
       </c>
       <c r="Y44" t="n">
-        <v>509.9290883898282</v>
+        <v>511.3174326828064</v>
       </c>
     </row>
     <row r="45">
@@ -4109,10 +4109,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S45" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T45" t="n">
         <v>392.6911708778912</v>
@@ -4158,7 +4158,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4209,7 +4209,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4336,31 +4336,31 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J2" t="n">
-        <v>1101.367131735718</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K2" t="n">
-        <v>2153.765102156982</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L2" t="n">
-        <v>3071.357825473565</v>
+        <v>3681.051378010445</v>
       </c>
       <c r="M2" t="n">
-        <v>3553.537024987068</v>
+        <v>4163.230577523947</v>
       </c>
       <c r="N2" t="n">
-        <v>4118.58008885974</v>
+        <v>4728.273641396619</v>
       </c>
       <c r="O2" t="n">
-        <v>5028.734971800483</v>
+        <v>5638.428524337363</v>
       </c>
       <c r="P2" t="n">
-        <v>5864.602299897897</v>
+        <v>6474.295852434777</v>
       </c>
       <c r="Q2" t="n">
-        <v>6931.116362236997</v>
+        <v>6931.116362236999</v>
       </c>
       <c r="R2" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S2" t="n">
         <v>6684.746993155883</v>
@@ -4470,19 +4470,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="C4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="D4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="E4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="F4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="G4" t="n">
         <v>290.6133856211738</v>
@@ -4527,19 +4527,19 @@
         <v>140.96</v>
       </c>
       <c r="U4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="V4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="W4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="X4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="Y4" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="5">
@@ -4576,22 +4576,22 @@
         <v>599.7771454756521</v>
       </c>
       <c r="K5" t="n">
-        <v>1339.420289043491</v>
+        <v>2049.12665539136</v>
       </c>
       <c r="L5" t="n">
-        <v>2257.013012360075</v>
+        <v>3681.051378010443</v>
       </c>
       <c r="M5" t="n">
-        <v>2739.192211873577</v>
+        <v>4163.230577523946</v>
       </c>
       <c r="N5" t="n">
-        <v>3304.235275746249</v>
+        <v>4728.273641396618</v>
       </c>
       <c r="O5" t="n">
-        <v>4214.390158686993</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P5" t="n">
-        <v>5912.12964013179</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q5" t="n">
         <v>6931.116362236997</v>
@@ -4600,19 +4600,19 @@
         <v>7048</v>
       </c>
       <c r="S5" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T5" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U5" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V5" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W5" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X5" t="n">
         <v>3583.51196363841</v>
@@ -4646,7 +4646,7 @@
         <v>554.3073408685043</v>
       </c>
       <c r="H6" t="n">
-        <v>249.4407957783515</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I6" t="n">
         <v>140.96</v>
@@ -4707,19 +4707,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="C7" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="D7" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="E7" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="F7" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="G7" t="n">
         <v>290.6133856211738</v>
@@ -4761,22 +4761,22 @@
         <v>140.96</v>
       </c>
       <c r="T7" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="U7" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="V7" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="W7" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="X7" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="Y7" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="8">
@@ -4813,22 +4813,22 @@
         <v>599.7771454756521</v>
       </c>
       <c r="K8" t="n">
-        <v>1339.420289043491</v>
+        <v>2049.12665539136</v>
       </c>
       <c r="L8" t="n">
-        <v>3071.357825473565</v>
+        <v>3681.051378010443</v>
       </c>
       <c r="M8" t="n">
-        <v>3553.537024987068</v>
+        <v>4163.230577523946</v>
       </c>
       <c r="N8" t="n">
-        <v>4118.58008885974</v>
+        <v>4728.273641396618</v>
       </c>
       <c r="O8" t="n">
-        <v>5028.734971800483</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P8" t="n">
-        <v>5864.602299897897</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q8" t="n">
         <v>6931.116362236997</v>
@@ -4837,7 +4837,7 @@
         <v>7048</v>
       </c>
       <c r="S8" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T8" t="n">
         <v>6118.11576243671</v>
@@ -4944,16 +4944,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>290.6133856211738</v>
+        <v>252.7173376662921</v>
       </c>
       <c r="C10" t="n">
-        <v>290.6133856211738</v>
+        <v>252.7173376662921</v>
       </c>
       <c r="D10" t="n">
-        <v>290.6133856211738</v>
+        <v>252.7173376662921</v>
       </c>
       <c r="E10" t="n">
-        <v>290.6133856211738</v>
+        <v>252.7173376662921</v>
       </c>
       <c r="F10" t="n">
         <v>290.6133856211738</v>
@@ -4995,25 +4995,25 @@
         <v>140.96</v>
       </c>
       <c r="S10" t="n">
-        <v>223.6648391925338</v>
+        <v>140.96</v>
       </c>
       <c r="T10" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="U10" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="V10" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="W10" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="X10" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="Y10" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="11">
@@ -5023,13 +5023,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C11" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D11" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E11" t="n">
         <v>1303.215227044376</v>
@@ -5047,16 +5047,16 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J11" t="n">
-        <v>1101.367131735718</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K11" t="n">
-        <v>1841.010275303557</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L11" t="n">
-        <v>2758.60299862014</v>
+        <v>2595.354589746543</v>
       </c>
       <c r="M11" t="n">
-        <v>4163.230577523946</v>
+        <v>3077.533789260046</v>
       </c>
       <c r="N11" t="n">
         <v>4728.273641396618</v>
@@ -5074,25 +5074,25 @@
         <v>7048</v>
       </c>
       <c r="S11" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T11" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U11" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V11" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W11" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X11" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y11" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="12">
@@ -5244,13 +5244,13 @@
         <v>307.8416045893196</v>
       </c>
       <c r="W13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="X13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Y13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="14">
@@ -5260,22 +5260,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C14" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D14" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E14" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F14" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G14" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H14" t="n">
         <v>140.96</v>
@@ -5287,10 +5287,10 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K14" t="n">
-        <v>1713.790319599031</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L14" t="n">
-        <v>2631.383042915614</v>
+        <v>3681.051378010443</v>
       </c>
       <c r="M14" t="n">
         <v>4163.230577523946</v>
@@ -5436,7 +5436,7 @@
         <v>307.8416045893196</v>
       </c>
       <c r="H16" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="I16" t="n">
         <v>140.96</v>
@@ -5524,25 +5524,25 @@
         <v>599.7771454756521</v>
       </c>
       <c r="K17" t="n">
-        <v>2049.12665539136</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L17" t="n">
-        <v>3793.50665539136</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M17" t="n">
-        <v>4280.114215286949</v>
+        <v>2739.192211873577</v>
       </c>
       <c r="N17" t="n">
-        <v>4845.157279159621</v>
+        <v>3304.235275746249</v>
       </c>
       <c r="O17" t="n">
-        <v>5755.312162100365</v>
+        <v>4214.390158686993</v>
       </c>
       <c r="P17" t="n">
-        <v>6591.179490197778</v>
+        <v>5912.12964013179</v>
       </c>
       <c r="Q17" t="n">
-        <v>7048</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R17" t="n">
         <v>7048</v>
@@ -5673,7 +5673,7 @@
         <v>307.8416045893196</v>
       </c>
       <c r="H19" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="I19" t="n">
         <v>140.96</v>
@@ -5734,22 +5734,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2578.759347546637</v>
+        <v>2578.759347547336</v>
       </c>
       <c r="C20" t="n">
-        <v>2124.744622048664</v>
+        <v>2124.744622049362</v>
       </c>
       <c r="D20" t="n">
-        <v>1710.260626351846</v>
+        <v>1710.260626352544</v>
       </c>
       <c r="E20" t="n">
-        <v>1301.81285907218</v>
+        <v>1301.812859072879</v>
       </c>
       <c r="F20" t="n">
-        <v>892.8334361347946</v>
+        <v>892.8334361354931</v>
       </c>
       <c r="G20" t="n">
-        <v>490.9304003238396</v>
+        <v>490.9304003245381</v>
       </c>
       <c r="H20" t="n">
         <v>140.96</v>
@@ -5764,46 +5764,46 @@
         <v>2124.71495243113</v>
       </c>
       <c r="L20" t="n">
-        <v>3042.307675747712</v>
+        <v>3071.357825474772</v>
       </c>
       <c r="M20" t="n">
-        <v>3524.486875261216</v>
+        <v>3553.537024988274</v>
       </c>
       <c r="N20" t="n">
-        <v>4089.529939133888</v>
+        <v>4118.580088860946</v>
       </c>
       <c r="O20" t="n">
-        <v>5638.42852433787</v>
+        <v>5028.73497180169</v>
       </c>
       <c r="P20" t="n">
-        <v>6474.295852435283</v>
+        <v>5864.602299899104</v>
       </c>
       <c r="Q20" t="n">
-        <v>6931.116362237505</v>
+        <v>6931.116362238204</v>
       </c>
       <c r="R20" t="n">
-        <v>7048.000000000508</v>
+        <v>7048.000000001207</v>
       </c>
       <c r="S20" t="n">
-        <v>6683.344625183686</v>
+        <v>6683.344625184384</v>
       </c>
       <c r="T20" t="n">
-        <v>6116.713394464513</v>
+        <v>6116.713394465211</v>
       </c>
       <c r="U20" t="n">
-        <v>5461.408922543425</v>
+        <v>5461.408922544124</v>
       </c>
       <c r="V20" t="n">
-        <v>4825.195766819361</v>
+        <v>4825.195766820059</v>
       </c>
       <c r="W20" t="n">
-        <v>4180.374073909313</v>
+        <v>4180.374073910011</v>
       </c>
       <c r="X20" t="n">
-        <v>3582.109595666214</v>
+        <v>3582.109595666912</v>
       </c>
       <c r="Y20" t="n">
-        <v>3065.627340431056</v>
+        <v>3065.627340431754</v>
       </c>
     </row>
     <row r="21">
@@ -5971,76 +5971,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347547336</v>
       </c>
       <c r="C23" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622049362</v>
       </c>
       <c r="D23" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626352544</v>
       </c>
       <c r="E23" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859072879</v>
       </c>
       <c r="F23" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361354931</v>
       </c>
       <c r="G23" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003245381</v>
       </c>
       <c r="H23" t="n">
-        <v>140.96</v>
+        <v>140.9600000000241</v>
       </c>
       <c r="I23" t="n">
-        <v>216.5482970397704</v>
+        <v>216.5482970397945</v>
       </c>
       <c r="J23" t="n">
-        <v>675.3654425154225</v>
+        <v>675.3654425154466</v>
       </c>
       <c r="K23" t="n">
-        <v>1677.76186642996</v>
+        <v>1901.586501347684</v>
       </c>
       <c r="L23" t="n">
-        <v>2595.354589746543</v>
+        <v>2819.179224664267</v>
       </c>
       <c r="M23" t="n">
-        <v>3077.533789260046</v>
+        <v>3301.35842417777</v>
       </c>
       <c r="N23" t="n">
-        <v>4728.273641396618</v>
+        <v>3866.401488050442</v>
       </c>
       <c r="O23" t="n">
-        <v>5638.428524337362</v>
+        <v>4776.556370991186</v>
       </c>
       <c r="P23" t="n">
-        <v>6474.295852434775</v>
+        <v>6474.295852435982</v>
       </c>
       <c r="Q23" t="n">
-        <v>6931.116362236997</v>
+        <v>6931.116362238204</v>
       </c>
       <c r="R23" t="n">
-        <v>7048</v>
+        <v>7048.000000001207</v>
       </c>
       <c r="S23" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625184384</v>
       </c>
       <c r="T23" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394465211</v>
       </c>
       <c r="U23" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922544124</v>
       </c>
       <c r="V23" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766820059</v>
       </c>
       <c r="W23" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073910011</v>
       </c>
       <c r="X23" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595666912</v>
       </c>
       <c r="Y23" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340431754</v>
       </c>
     </row>
     <row r="24">
@@ -6050,76 +6050,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2287.112034235904</v>
+        <v>2287.112034235928</v>
       </c>
       <c r="C24" t="n">
-        <v>1922.364647927298</v>
+        <v>1922.364647927322</v>
       </c>
       <c r="D24" t="n">
-        <v>1570.91243893972</v>
+        <v>1570.912438939744</v>
       </c>
       <c r="E24" t="n">
-        <v>1224.779007402434</v>
+        <v>1224.779007402458</v>
       </c>
       <c r="F24" t="n">
-        <v>881.7120959500332</v>
+        <v>881.7120959500573</v>
       </c>
       <c r="G24" t="n">
-        <v>555.8565327448407</v>
+        <v>555.8565327448648</v>
       </c>
       <c r="H24" t="n">
-        <v>250.9899876546879</v>
+        <v>250.989987654712</v>
       </c>
       <c r="I24" t="n">
-        <v>140.96</v>
+        <v>140.9600000000241</v>
       </c>
       <c r="J24" t="n">
-        <v>558.8475295149217</v>
+        <v>558.8475295149458</v>
       </c>
       <c r="K24" t="n">
-        <v>1250.415257213079</v>
+        <v>1250.415257213103</v>
       </c>
       <c r="L24" t="n">
-        <v>2197.270784374317</v>
+        <v>2197.270784374341</v>
       </c>
       <c r="M24" t="n">
-        <v>3071.633876117176</v>
+        <v>3071.6338761172</v>
       </c>
       <c r="N24" t="n">
-        <v>4014.06020421531</v>
+        <v>4014.060204215335</v>
       </c>
       <c r="O24" t="n">
-        <v>4993.313206182049</v>
+        <v>4993.313206182072</v>
       </c>
       <c r="P24" t="n">
-        <v>5699.926775368536</v>
+        <v>5699.92677536856</v>
       </c>
       <c r="Q24" t="n">
-        <v>5925.707874249716</v>
+        <v>5925.70787424974</v>
       </c>
       <c r="R24" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372932</v>
       </c>
       <c r="S24" t="n">
-        <v>5159.222422432123</v>
+        <v>5159.222422432146</v>
       </c>
       <c r="T24" t="n">
-        <v>4762.564674070616</v>
+        <v>4762.56467407064</v>
       </c>
       <c r="U24" t="n">
-        <v>4358.520619043174</v>
+        <v>4358.520619043197</v>
       </c>
       <c r="V24" t="n">
-        <v>3939.822975415375</v>
+        <v>3939.822975415399</v>
       </c>
       <c r="W24" t="n">
-        <v>3503.082427021609</v>
+        <v>3503.082427021633</v>
       </c>
       <c r="X24" t="n">
-        <v>3078.978649804046</v>
+        <v>3078.97864980407</v>
       </c>
       <c r="Y24" t="n">
-        <v>2675.553000545324</v>
+        <v>2675.553000545348</v>
       </c>
     </row>
     <row r="25">
@@ -6129,76 +6129,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000241</v>
       </c>
       <c r="C25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000241</v>
       </c>
       <c r="D25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000241</v>
       </c>
       <c r="E25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000241</v>
       </c>
       <c r="F25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000241</v>
       </c>
       <c r="G25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000241</v>
       </c>
       <c r="H25" t="n">
-        <v>239.3480243885944</v>
+        <v>140.9600000000241</v>
       </c>
       <c r="I25" t="n">
-        <v>140.96</v>
+        <v>140.9600000000241</v>
       </c>
       <c r="J25" t="n">
-        <v>290.4466099967136</v>
+        <v>290.4466099967377</v>
       </c>
       <c r="K25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893438</v>
       </c>
       <c r="L25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893438</v>
       </c>
       <c r="M25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893438</v>
       </c>
       <c r="N25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893438</v>
       </c>
       <c r="O25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893438</v>
       </c>
       <c r="P25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893438</v>
       </c>
       <c r="Q25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893438</v>
       </c>
       <c r="R25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893438</v>
       </c>
       <c r="S25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893438</v>
       </c>
       <c r="T25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893438</v>
       </c>
       <c r="U25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893438</v>
       </c>
       <c r="V25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893438</v>
       </c>
       <c r="W25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000241</v>
       </c>
       <c r="X25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000241</v>
       </c>
       <c r="Y25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000241</v>
       </c>
     </row>
     <row r="26">
@@ -6208,76 +6208,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2580.161715518833</v>
+        <v>2580.161715518842</v>
       </c>
       <c r="C26" t="n">
-        <v>2126.146990020859</v>
+        <v>2126.146990020869</v>
       </c>
       <c r="D26" t="n">
-        <v>1711.662994324041</v>
+        <v>1711.66299432405</v>
       </c>
       <c r="E26" t="n">
-        <v>1303.215227044376</v>
+        <v>1303.215227044385</v>
       </c>
       <c r="F26" t="n">
-        <v>894.2358041069906</v>
+        <v>894.2358041069994</v>
       </c>
       <c r="G26" t="n">
-        <v>492.3327682960356</v>
+        <v>492.3327682960444</v>
       </c>
       <c r="H26" t="n">
-        <v>140.96</v>
+        <v>140.9600000000088</v>
       </c>
       <c r="I26" t="n">
-        <v>216.5482970397704</v>
+        <v>216.5482970397792</v>
       </c>
       <c r="J26" t="n">
-        <v>675.3654425154225</v>
+        <v>1101.367131735726</v>
       </c>
       <c r="K26" t="n">
-        <v>2124.71495243113</v>
+        <v>1841.010275303565</v>
       </c>
       <c r="L26" t="n">
-        <v>3681.051378010443</v>
+        <v>2819.179224663499</v>
       </c>
       <c r="M26" t="n">
-        <v>4163.230577523946</v>
+        <v>3301.358424177001</v>
       </c>
       <c r="N26" t="n">
-        <v>4728.273641396618</v>
+        <v>3866.401488049673</v>
       </c>
       <c r="O26" t="n">
-        <v>5638.428524337362</v>
+        <v>4776.556370990417</v>
       </c>
       <c r="P26" t="n">
-        <v>6474.295852434775</v>
+        <v>6474.295852435213</v>
       </c>
       <c r="Q26" t="n">
-        <v>6931.116362236997</v>
+        <v>6931.116362237435</v>
       </c>
       <c r="R26" t="n">
-        <v>7048</v>
+        <v>7048.000000000438</v>
       </c>
       <c r="S26" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183616</v>
       </c>
       <c r="T26" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464443</v>
       </c>
       <c r="U26" t="n">
-        <v>5461.408922542916</v>
+        <v>5461.408922543354</v>
       </c>
       <c r="V26" t="n">
-        <v>4825.195766818852</v>
+        <v>4825.19576681929</v>
       </c>
       <c r="W26" t="n">
-        <v>4180.374073908803</v>
+        <v>4180.374073909242</v>
       </c>
       <c r="X26" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595666143</v>
       </c>
       <c r="Y26" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430985</v>
       </c>
     </row>
     <row r="27">
@@ -6287,76 +6287,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2287.112034235904</v>
+        <v>2287.112034235912</v>
       </c>
       <c r="C27" t="n">
-        <v>1922.364647927298</v>
+        <v>1922.364647927307</v>
       </c>
       <c r="D27" t="n">
-        <v>1570.91243893972</v>
+        <v>1570.912438939728</v>
       </c>
       <c r="E27" t="n">
-        <v>1224.779007402434</v>
+        <v>1224.779007402443</v>
       </c>
       <c r="F27" t="n">
-        <v>881.7120959500332</v>
+        <v>881.7120959500419</v>
       </c>
       <c r="G27" t="n">
-        <v>555.8565327448407</v>
+        <v>555.8565327448495</v>
       </c>
       <c r="H27" t="n">
-        <v>250.9899876546879</v>
+        <v>250.9899876546966</v>
       </c>
       <c r="I27" t="n">
-        <v>140.96</v>
+        <v>140.9600000000088</v>
       </c>
       <c r="J27" t="n">
-        <v>558.8475295149217</v>
+        <v>558.8475295149304</v>
       </c>
       <c r="K27" t="n">
-        <v>1250.415257213079</v>
+        <v>1250.415257213087</v>
       </c>
       <c r="L27" t="n">
-        <v>2197.270784374317</v>
+        <v>2197.270784374326</v>
       </c>
       <c r="M27" t="n">
-        <v>3071.633876117176</v>
+        <v>3071.633876117185</v>
       </c>
       <c r="N27" t="n">
-        <v>4014.06020421531</v>
+        <v>4014.060204215319</v>
       </c>
       <c r="O27" t="n">
-        <v>4993.313206182049</v>
+        <v>4993.313206182057</v>
       </c>
       <c r="P27" t="n">
-        <v>5699.926775368536</v>
+        <v>5699.926775368544</v>
       </c>
       <c r="Q27" t="n">
-        <v>5925.707874249716</v>
+        <v>5925.707874249724</v>
       </c>
       <c r="R27" t="n">
-        <v>5571.538498249245</v>
+        <v>5571.538498249253</v>
       </c>
       <c r="S27" t="n">
-        <v>5159.222422432123</v>
+        <v>5159.222422432131</v>
       </c>
       <c r="T27" t="n">
-        <v>4762.564674070616</v>
+        <v>4762.564674070624</v>
       </c>
       <c r="U27" t="n">
-        <v>4358.520619043174</v>
+        <v>4358.520619043182</v>
       </c>
       <c r="V27" t="n">
-        <v>3939.822975415375</v>
+        <v>3939.822975415384</v>
       </c>
       <c r="W27" t="n">
-        <v>3503.082427021609</v>
+        <v>3503.082427021618</v>
       </c>
       <c r="X27" t="n">
-        <v>3078.978649804046</v>
+        <v>3078.978649804054</v>
       </c>
       <c r="Y27" t="n">
-        <v>2675.553000545324</v>
+        <v>2675.553000545333</v>
       </c>
     </row>
     <row r="28">
@@ -6366,76 +6366,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="C28" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="D28" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="E28" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="F28" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="G28" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="H28" t="n">
-        <v>239.3480243885944</v>
+        <v>140.9600000000088</v>
       </c>
       <c r="I28" t="n">
-        <v>140.96</v>
+        <v>140.9600000000088</v>
       </c>
       <c r="J28" t="n">
-        <v>290.4466099967136</v>
+        <v>290.4466099967223</v>
       </c>
       <c r="K28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="L28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="M28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="N28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="O28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="P28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="Q28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="R28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="S28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="T28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="U28" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="V28" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="W28" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="X28" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="Y28" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893284</v>
       </c>
     </row>
     <row r="29">
@@ -6445,76 +6445,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2578.759347547393</v>
+        <v>2580.161715517894</v>
       </c>
       <c r="C29" t="n">
-        <v>2124.744622049578</v>
+        <v>2126.146990020078</v>
       </c>
       <c r="D29" t="n">
-        <v>1710.260626352918</v>
+        <v>1711.662994323418</v>
       </c>
       <c r="E29" t="n">
-        <v>1301.81285907341</v>
+        <v>1303.215227043911</v>
       </c>
       <c r="F29" t="n">
-        <v>892.8334361361824</v>
+        <v>894.2358041066833</v>
       </c>
       <c r="G29" t="n">
-        <v>492.3327682958776</v>
+        <v>492.3327682958864</v>
       </c>
       <c r="H29" t="n">
-        <v>140.96</v>
+        <v>140.9600000000088</v>
       </c>
       <c r="I29" t="n">
-        <v>216.5482970397704</v>
+        <v>216.5482970397792</v>
       </c>
       <c r="J29" t="n">
-        <v>675.3654425154225</v>
+        <v>1101.367131735726</v>
       </c>
       <c r="K29" t="n">
-        <v>2124.71495243113</v>
+        <v>1841.010275303565</v>
       </c>
       <c r="L29" t="n">
-        <v>3681.051378010443</v>
+        <v>2819.179224663499</v>
       </c>
       <c r="M29" t="n">
-        <v>4163.230577523946</v>
+        <v>3301.358424177001</v>
       </c>
       <c r="N29" t="n">
-        <v>4728.273641396618</v>
+        <v>3866.401488049673</v>
       </c>
       <c r="O29" t="n">
-        <v>5638.428524337362</v>
+        <v>4776.556370990417</v>
       </c>
       <c r="P29" t="n">
-        <v>6474.295852434775</v>
+        <v>6474.295852435213</v>
       </c>
       <c r="Q29" t="n">
-        <v>6931.116362236997</v>
+        <v>6931.116362237435</v>
       </c>
       <c r="R29" t="n">
-        <v>7048</v>
+        <v>7048.000000000438</v>
       </c>
       <c r="S29" t="n">
-        <v>6683.344625183336</v>
+        <v>6683.344625183774</v>
       </c>
       <c r="T29" t="n">
-        <v>6116.713394464321</v>
+        <v>6118.11576243498</v>
       </c>
       <c r="U29" t="n">
-        <v>5461.408922543391</v>
+        <v>5462.81129051405</v>
       </c>
       <c r="V29" t="n">
-        <v>4825.195766819485</v>
+        <v>4826.598134790143</v>
       </c>
       <c r="W29" t="n">
-        <v>4180.374073909595</v>
+        <v>4181.776441880254</v>
       </c>
       <c r="X29" t="n">
-        <v>3582.109595666654</v>
+        <v>3583.511963637312</v>
       </c>
       <c r="Y29" t="n">
-        <v>3065.627340431654</v>
+        <v>3067.029708402312</v>
       </c>
     </row>
     <row r="30">
@@ -6524,76 +6524,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2287.112034234797</v>
+        <v>2287.112034234964</v>
       </c>
       <c r="C30" t="n">
-        <v>1922.36464792635</v>
+        <v>1922.364647926517</v>
       </c>
       <c r="D30" t="n">
-        <v>1570.91243893893</v>
+        <v>1570.912438939096</v>
       </c>
       <c r="E30" t="n">
-        <v>1224.779007401802</v>
+        <v>1224.779007401969</v>
       </c>
       <c r="F30" t="n">
-        <v>881.7120959495592</v>
+        <v>881.7120959497259</v>
       </c>
       <c r="G30" t="n">
-        <v>555.8565327445247</v>
+        <v>555.8565327446914</v>
       </c>
       <c r="H30" t="n">
-        <v>250.9899876545298</v>
+        <v>250.9899876545386</v>
       </c>
       <c r="I30" t="n">
-        <v>140.96</v>
+        <v>140.9600000000088</v>
       </c>
       <c r="J30" t="n">
-        <v>558.8475295150765</v>
+        <v>558.8475295150853</v>
       </c>
       <c r="K30" t="n">
-        <v>1250.415257213388</v>
+        <v>1250.415257213397</v>
       </c>
       <c r="L30" t="n">
-        <v>2197.270784374781</v>
+        <v>2197.27078437479</v>
       </c>
       <c r="M30" t="n">
-        <v>3071.633876117795</v>
+        <v>3071.633876117804</v>
       </c>
       <c r="N30" t="n">
-        <v>4014.060204216084</v>
+        <v>4014.060204216093</v>
       </c>
       <c r="O30" t="n">
-        <v>4993.313206182977</v>
+        <v>4993.313206182986</v>
       </c>
       <c r="P30" t="n">
-        <v>5699.92677536962</v>
+        <v>5699.926775369629</v>
       </c>
       <c r="Q30" t="n">
-        <v>5925.707874250955</v>
+        <v>5925.707874250963</v>
       </c>
       <c r="R30" t="n">
-        <v>5569.989306374305</v>
+        <v>5571.53849824704</v>
       </c>
       <c r="S30" t="n">
-        <v>5159.22242242991</v>
+        <v>5159.222422430076</v>
       </c>
       <c r="T30" t="n">
-        <v>4762.564674068562</v>
+        <v>4762.564674068728</v>
       </c>
       <c r="U30" t="n">
-        <v>4358.520619041277</v>
+        <v>4358.520619041444</v>
       </c>
       <c r="V30" t="n">
-        <v>3939.822975413637</v>
+        <v>3939.822975413804</v>
       </c>
       <c r="W30" t="n">
-        <v>3503.082427020029</v>
+        <v>3503.082427020196</v>
       </c>
       <c r="X30" t="n">
-        <v>3078.978649802624</v>
+        <v>3078.978649802791</v>
       </c>
       <c r="Y30" t="n">
-        <v>2675.55300054406</v>
+        <v>2675.553000544227</v>
       </c>
     </row>
     <row r="31">
@@ -6603,76 +6603,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>140.96</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="C31" t="n">
-        <v>140.96</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="D31" t="n">
-        <v>140.96</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="E31" t="n">
-        <v>140.96</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="F31" t="n">
-        <v>140.96</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="G31" t="n">
-        <v>140.96</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="H31" t="n">
-        <v>140.96</v>
+        <v>140.9600000000088</v>
       </c>
       <c r="I31" t="n">
-        <v>140.96</v>
+        <v>140.9600000000088</v>
       </c>
       <c r="J31" t="n">
-        <v>290.4466099967136</v>
+        <v>290.4466099967223</v>
       </c>
       <c r="K31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="L31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="M31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="N31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="O31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="P31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="Q31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="R31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="S31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="T31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="U31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="V31" t="n">
-        <v>140.96</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="W31" t="n">
-        <v>140.96</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="X31" t="n">
-        <v>140.96</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="Y31" t="n">
-        <v>140.96</v>
+        <v>307.8416045893284</v>
       </c>
     </row>
     <row r="32">
@@ -6682,76 +6682,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2580.161715518833</v>
+        <v>2580.161715518842</v>
       </c>
       <c r="C32" t="n">
-        <v>2126.146990020859</v>
+        <v>2126.146990020869</v>
       </c>
       <c r="D32" t="n">
-        <v>1711.662994324041</v>
+        <v>1711.66299432405</v>
       </c>
       <c r="E32" t="n">
-        <v>1303.215227044376</v>
+        <v>1303.215227044385</v>
       </c>
       <c r="F32" t="n">
-        <v>894.2358041069906</v>
+        <v>894.2358041069994</v>
       </c>
       <c r="G32" t="n">
-        <v>492.3327682960356</v>
+        <v>492.3327682960444</v>
       </c>
       <c r="H32" t="n">
-        <v>140.96</v>
+        <v>140.9600000000088</v>
       </c>
       <c r="I32" t="n">
-        <v>216.5482970397704</v>
+        <v>216.5482970397792</v>
       </c>
       <c r="J32" t="n">
-        <v>675.3654425154225</v>
+        <v>675.3654425154314</v>
       </c>
       <c r="K32" t="n">
-        <v>1936.671378010443</v>
+        <v>1936.671378010773</v>
       </c>
       <c r="L32" t="n">
-        <v>3681.051378010443</v>
+        <v>3681.051378010881</v>
       </c>
       <c r="M32" t="n">
-        <v>4163.230577523946</v>
+        <v>4163.230577524384</v>
       </c>
       <c r="N32" t="n">
-        <v>4728.273641396618</v>
+        <v>4728.273641397056</v>
       </c>
       <c r="O32" t="n">
-        <v>5638.428524337362</v>
+        <v>5638.4285243378</v>
       </c>
       <c r="P32" t="n">
-        <v>6474.295852434775</v>
+        <v>6474.295852435213</v>
       </c>
       <c r="Q32" t="n">
-        <v>6931.116362236997</v>
+        <v>6931.116362237435</v>
       </c>
       <c r="R32" t="n">
-        <v>7048</v>
+        <v>7048.000000000438</v>
       </c>
       <c r="S32" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.746993155892</v>
       </c>
       <c r="T32" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.115762436719</v>
       </c>
       <c r="U32" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.81129051563</v>
       </c>
       <c r="V32" t="n">
-        <v>4826.598134791557</v>
+        <v>4826.598134791566</v>
       </c>
       <c r="W32" t="n">
-        <v>4181.776441881509</v>
+        <v>4181.776441881518</v>
       </c>
       <c r="X32" t="n">
-        <v>3583.51196363841</v>
+        <v>3583.511963638419</v>
       </c>
       <c r="Y32" t="n">
-        <v>3067.029708403252</v>
+        <v>3067.029708403261</v>
       </c>
     </row>
     <row r="33">
@@ -6761,76 +6761,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2287.112034235904</v>
+        <v>2287.112034235912</v>
       </c>
       <c r="C33" t="n">
-        <v>1922.364647927298</v>
+        <v>1922.364647927307</v>
       </c>
       <c r="D33" t="n">
-        <v>1570.91243893972</v>
+        <v>1570.912438939728</v>
       </c>
       <c r="E33" t="n">
-        <v>1224.779007402434</v>
+        <v>1224.779007402443</v>
       </c>
       <c r="F33" t="n">
-        <v>881.7120959500332</v>
+        <v>881.7120959500419</v>
       </c>
       <c r="G33" t="n">
-        <v>555.8565327448407</v>
+        <v>555.8565327448495</v>
       </c>
       <c r="H33" t="n">
-        <v>250.9899876546879</v>
+        <v>250.9899876546966</v>
       </c>
       <c r="I33" t="n">
-        <v>140.96</v>
+        <v>140.9600000000088</v>
       </c>
       <c r="J33" t="n">
-        <v>558.8475295149217</v>
+        <v>558.8475295149304</v>
       </c>
       <c r="K33" t="n">
-        <v>1250.415257213079</v>
+        <v>1250.415257213087</v>
       </c>
       <c r="L33" t="n">
-        <v>2197.270784374317</v>
+        <v>2197.270784374326</v>
       </c>
       <c r="M33" t="n">
-        <v>3071.633876117176</v>
+        <v>3071.633876117185</v>
       </c>
       <c r="N33" t="n">
-        <v>4014.06020421531</v>
+        <v>4014.060204215319</v>
       </c>
       <c r="O33" t="n">
-        <v>4993.313206182049</v>
+        <v>4993.313206182057</v>
       </c>
       <c r="P33" t="n">
-        <v>5699.926775368536</v>
+        <v>5699.926775368544</v>
       </c>
       <c r="Q33" t="n">
-        <v>5925.707874249716</v>
+        <v>5925.707874249724</v>
       </c>
       <c r="R33" t="n">
-        <v>5571.538498249245</v>
+        <v>5571.538498249253</v>
       </c>
       <c r="S33" t="n">
-        <v>5159.222422432123</v>
+        <v>5159.222422432131</v>
       </c>
       <c r="T33" t="n">
-        <v>4762.564674070616</v>
+        <v>4762.564674070624</v>
       </c>
       <c r="U33" t="n">
-        <v>4358.520619043174</v>
+        <v>4358.520619043182</v>
       </c>
       <c r="V33" t="n">
-        <v>3939.822975415375</v>
+        <v>3939.822975415384</v>
       </c>
       <c r="W33" t="n">
-        <v>3503.082427021609</v>
+        <v>3503.082427021618</v>
       </c>
       <c r="X33" t="n">
-        <v>3078.978649804046</v>
+        <v>3078.978649804054</v>
       </c>
       <c r="Y33" t="n">
-        <v>2675.553000545324</v>
+        <v>2675.553000545333</v>
       </c>
     </row>
     <row r="34">
@@ -6840,76 +6840,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="C34" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="D34" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="E34" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="F34" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="G34" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="H34" t="n">
-        <v>239.3480243885944</v>
+        <v>239.3480243886031</v>
       </c>
       <c r="I34" t="n">
-        <v>140.96</v>
+        <v>140.9600000000088</v>
       </c>
       <c r="J34" t="n">
-        <v>290.4466099967136</v>
+        <v>290.4466099967223</v>
       </c>
       <c r="K34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="L34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="M34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="N34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="O34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="P34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="Q34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="R34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="S34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="T34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="U34" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="V34" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="W34" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="X34" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="Y34" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893284</v>
       </c>
     </row>
     <row r="35">
@@ -6919,76 +6919,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2578.759347546128</v>
+        <v>2578.759347546566</v>
       </c>
       <c r="C35" t="n">
-        <v>2124.744622048154</v>
+        <v>2124.744622048593</v>
       </c>
       <c r="D35" t="n">
-        <v>1710.260626351336</v>
+        <v>1710.260626351775</v>
       </c>
       <c r="E35" t="n">
-        <v>1301.812859071671</v>
+        <v>1301.812859072109</v>
       </c>
       <c r="F35" t="n">
-        <v>892.8334361342853</v>
+        <v>892.8334361347237</v>
       </c>
       <c r="G35" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003237687</v>
       </c>
       <c r="H35" t="n">
-        <v>140.96</v>
+        <v>140.9600000000088</v>
       </c>
       <c r="I35" t="n">
-        <v>216.5482970397704</v>
+        <v>216.5482970397792</v>
       </c>
       <c r="J35" t="n">
-        <v>675.3654425154225</v>
+        <v>675.3654425154314</v>
       </c>
       <c r="K35" t="n">
-        <v>1901.586501346477</v>
+        <v>1415.008586083271</v>
       </c>
       <c r="L35" t="n">
-        <v>2819.17922466306</v>
+        <v>2631.383042916052</v>
       </c>
       <c r="M35" t="n">
-        <v>3301.358424176563</v>
+        <v>4163.230577524384</v>
       </c>
       <c r="N35" t="n">
-        <v>3866.401488049235</v>
+        <v>4728.273641397056</v>
       </c>
       <c r="O35" t="n">
-        <v>4776.556370989979</v>
+        <v>5638.4285243378</v>
       </c>
       <c r="P35" t="n">
-        <v>6474.295852434775</v>
+        <v>6474.295852435213</v>
       </c>
       <c r="Q35" t="n">
-        <v>6931.116362236997</v>
+        <v>6931.116362237435</v>
       </c>
       <c r="R35" t="n">
-        <v>7048</v>
+        <v>7048.000000000438</v>
       </c>
       <c r="S35" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183616</v>
       </c>
       <c r="T35" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464443</v>
       </c>
       <c r="U35" t="n">
-        <v>5461.408922542916</v>
+        <v>5461.408922543354</v>
       </c>
       <c r="V35" t="n">
-        <v>4825.195766818852</v>
+        <v>4825.19576681929</v>
       </c>
       <c r="W35" t="n">
-        <v>4180.374073908803</v>
+        <v>4180.374073909242</v>
       </c>
       <c r="X35" t="n">
-        <v>3582.109595665705</v>
+        <v>3582.109595666143</v>
       </c>
       <c r="Y35" t="n">
-        <v>3065.627340430547</v>
+        <v>3065.627340430985</v>
       </c>
     </row>
     <row r="36">
@@ -6998,76 +6998,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2287.112034235904</v>
+        <v>2287.112034235912</v>
       </c>
       <c r="C36" t="n">
-        <v>1922.364647927298</v>
+        <v>1922.364647927307</v>
       </c>
       <c r="D36" t="n">
-        <v>1570.91243893972</v>
+        <v>1570.912438939728</v>
       </c>
       <c r="E36" t="n">
-        <v>1224.779007402434</v>
+        <v>1224.779007402443</v>
       </c>
       <c r="F36" t="n">
-        <v>881.7120959500332</v>
+        <v>881.7120959500419</v>
       </c>
       <c r="G36" t="n">
-        <v>555.8565327448407</v>
+        <v>555.8565327448495</v>
       </c>
       <c r="H36" t="n">
-        <v>250.9899876546879</v>
+        <v>250.9899876546966</v>
       </c>
       <c r="I36" t="n">
-        <v>140.96</v>
+        <v>140.9600000000088</v>
       </c>
       <c r="J36" t="n">
-        <v>558.8475295149217</v>
+        <v>558.8475295149304</v>
       </c>
       <c r="K36" t="n">
-        <v>1250.415257213079</v>
+        <v>1250.415257213087</v>
       </c>
       <c r="L36" t="n">
-        <v>2197.270784374317</v>
+        <v>2197.270784374326</v>
       </c>
       <c r="M36" t="n">
-        <v>3071.633876117176</v>
+        <v>3071.633876117185</v>
       </c>
       <c r="N36" t="n">
-        <v>4014.06020421531</v>
+        <v>4014.060204215319</v>
       </c>
       <c r="O36" t="n">
-        <v>4993.313206182049</v>
+        <v>4993.313206182057</v>
       </c>
       <c r="P36" t="n">
-        <v>5699.926775368536</v>
+        <v>5699.926775368544</v>
       </c>
       <c r="Q36" t="n">
-        <v>5925.707874249716</v>
+        <v>5925.707874249724</v>
       </c>
       <c r="R36" t="n">
-        <v>5571.538498249245</v>
+        <v>5571.538498249253</v>
       </c>
       <c r="S36" t="n">
-        <v>5159.222422432123</v>
+        <v>5159.222422432131</v>
       </c>
       <c r="T36" t="n">
-        <v>4762.564674070616</v>
+        <v>4762.564674070624</v>
       </c>
       <c r="U36" t="n">
-        <v>4358.520619043174</v>
+        <v>4358.520619043182</v>
       </c>
       <c r="V36" t="n">
-        <v>3939.822975415375</v>
+        <v>3939.822975415384</v>
       </c>
       <c r="W36" t="n">
-        <v>3503.082427021609</v>
+        <v>3503.082427021618</v>
       </c>
       <c r="X36" t="n">
-        <v>3078.978649804046</v>
+        <v>3078.978649804054</v>
       </c>
       <c r="Y36" t="n">
-        <v>2675.553000545324</v>
+        <v>2675.553000545333</v>
       </c>
     </row>
     <row r="37">
@@ -7077,76 +7077,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>239.3480243885944</v>
+        <v>140.9600000000088</v>
       </c>
       <c r="C37" t="n">
-        <v>239.3480243885944</v>
+        <v>140.9600000000088</v>
       </c>
       <c r="D37" t="n">
-        <v>239.3480243885944</v>
+        <v>140.9600000000088</v>
       </c>
       <c r="E37" t="n">
-        <v>239.3480243885944</v>
+        <v>140.9600000000088</v>
       </c>
       <c r="F37" t="n">
-        <v>239.3480243885944</v>
+        <v>140.9600000000088</v>
       </c>
       <c r="G37" t="n">
-        <v>239.3480243885944</v>
+        <v>140.9600000000088</v>
       </c>
       <c r="H37" t="n">
-        <v>239.3480243885944</v>
+        <v>140.9600000000088</v>
       </c>
       <c r="I37" t="n">
-        <v>140.96</v>
+        <v>140.9600000000088</v>
       </c>
       <c r="J37" t="n">
-        <v>290.4466099967136</v>
+        <v>290.4466099967223</v>
       </c>
       <c r="K37" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="L37" t="n">
-        <v>275.6639043471516</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="M37" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="N37" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="O37" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="P37" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="Q37" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="R37" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="S37" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="T37" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="U37" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="V37" t="n">
-        <v>239.3480243885944</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="W37" t="n">
-        <v>239.3480243885944</v>
+        <v>140.9600000000088</v>
       </c>
       <c r="X37" t="n">
-        <v>239.3480243885944</v>
+        <v>140.9600000000088</v>
       </c>
       <c r="Y37" t="n">
-        <v>239.3480243885944</v>
+        <v>140.9600000000088</v>
       </c>
     </row>
     <row r="38">
@@ -7156,76 +7156,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546319</v>
       </c>
       <c r="C38" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048345</v>
       </c>
       <c r="D38" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351527</v>
       </c>
       <c r="E38" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071862</v>
       </c>
       <c r="F38" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361344763</v>
       </c>
       <c r="G38" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003235213</v>
       </c>
       <c r="H38" t="n">
-        <v>140.96</v>
+        <v>140.9600000000088</v>
       </c>
       <c r="I38" t="n">
-        <v>140.96</v>
+        <v>216.5482970397792</v>
       </c>
       <c r="J38" t="n">
-        <v>599.7771454756521</v>
+        <v>675.3654425154314</v>
       </c>
       <c r="K38" t="n">
-        <v>1339.420289043491</v>
+        <v>2124.714952431139</v>
       </c>
       <c r="L38" t="n">
-        <v>2257.013012360075</v>
+        <v>3681.051378010634</v>
       </c>
       <c r="M38" t="n">
-        <v>2739.192211873577</v>
+        <v>4163.230577524137</v>
       </c>
       <c r="N38" t="n">
-        <v>3304.235275746249</v>
+        <v>4728.273641396809</v>
       </c>
       <c r="O38" t="n">
-        <v>4214.390158686993</v>
+        <v>5638.428524337553</v>
       </c>
       <c r="P38" t="n">
-        <v>5912.12964013179</v>
+        <v>6474.295852434966</v>
       </c>
       <c r="Q38" t="n">
-        <v>6978.643702470889</v>
+        <v>6931.116362237188</v>
       </c>
       <c r="R38" t="n">
-        <v>7048</v>
+        <v>7048.000000000191</v>
       </c>
       <c r="S38" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183368</v>
       </c>
       <c r="T38" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464196</v>
       </c>
       <c r="U38" t="n">
-        <v>5461.408922542916</v>
+        <v>5461.408922543107</v>
       </c>
       <c r="V38" t="n">
-        <v>4825.195766818852</v>
+        <v>4825.195766819043</v>
       </c>
       <c r="W38" t="n">
-        <v>4180.374073908803</v>
+        <v>4180.374073908994</v>
       </c>
       <c r="X38" t="n">
-        <v>3582.109595665705</v>
+        <v>3582.109595665896</v>
       </c>
       <c r="Y38" t="n">
-        <v>3065.627340430547</v>
+        <v>3065.627340430738</v>
       </c>
     </row>
     <row r="39">
@@ -7235,76 +7235,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2287.112034235904</v>
+        <v>2287.112034235912</v>
       </c>
       <c r="C39" t="n">
-        <v>1922.364647927298</v>
+        <v>1922.364647927307</v>
       </c>
       <c r="D39" t="n">
-        <v>1570.91243893972</v>
+        <v>1570.912438939728</v>
       </c>
       <c r="E39" t="n">
-        <v>1224.779007402434</v>
+        <v>1224.779007402443</v>
       </c>
       <c r="F39" t="n">
-        <v>881.7120959500332</v>
+        <v>881.7120959500419</v>
       </c>
       <c r="G39" t="n">
-        <v>555.8565327448407</v>
+        <v>555.8565327448495</v>
       </c>
       <c r="H39" t="n">
-        <v>250.9899876546879</v>
+        <v>250.9899876546966</v>
       </c>
       <c r="I39" t="n">
-        <v>140.96</v>
+        <v>140.9600000000088</v>
       </c>
       <c r="J39" t="n">
-        <v>558.8475295149217</v>
+        <v>558.8475295149304</v>
       </c>
       <c r="K39" t="n">
-        <v>1250.415257213079</v>
+        <v>1250.415257213087</v>
       </c>
       <c r="L39" t="n">
-        <v>2197.270784374317</v>
+        <v>2197.270784374326</v>
       </c>
       <c r="M39" t="n">
-        <v>3071.633876117176</v>
+        <v>3071.633876117185</v>
       </c>
       <c r="N39" t="n">
-        <v>4014.06020421531</v>
+        <v>4014.060204215319</v>
       </c>
       <c r="O39" t="n">
-        <v>4993.313206182049</v>
+        <v>4993.313206182057</v>
       </c>
       <c r="P39" t="n">
-        <v>5699.926775368536</v>
+        <v>5699.926775368544</v>
       </c>
       <c r="Q39" t="n">
-        <v>5925.707874249716</v>
+        <v>5925.707874249724</v>
       </c>
       <c r="R39" t="n">
-        <v>5571.538498249245</v>
+        <v>5571.538498249253</v>
       </c>
       <c r="S39" t="n">
-        <v>5159.222422432123</v>
+        <v>5159.222422432131</v>
       </c>
       <c r="T39" t="n">
-        <v>4762.564674070616</v>
+        <v>4762.564674070624</v>
       </c>
       <c r="U39" t="n">
-        <v>4358.520619043174</v>
+        <v>4358.520619043182</v>
       </c>
       <c r="V39" t="n">
-        <v>3939.822975415375</v>
+        <v>3939.822975415384</v>
       </c>
       <c r="W39" t="n">
-        <v>3503.082427021609</v>
+        <v>3503.082427021618</v>
       </c>
       <c r="X39" t="n">
-        <v>3078.978649804046</v>
+        <v>3078.978649804054</v>
       </c>
       <c r="Y39" t="n">
-        <v>2675.553000545324</v>
+        <v>2675.553000545333</v>
       </c>
     </row>
     <row r="40">
@@ -7314,76 +7314,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="C40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="D40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="E40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="F40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="G40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="H40" t="n">
-        <v>140.96</v>
+        <v>140.9600000000088</v>
       </c>
       <c r="I40" t="n">
-        <v>140.96</v>
+        <v>140.9600000000088</v>
       </c>
       <c r="J40" t="n">
-        <v>290.4466099967136</v>
+        <v>290.4466099967223</v>
       </c>
       <c r="K40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="L40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="M40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="N40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="O40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="P40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="Q40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="R40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="S40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="T40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="U40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="V40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="W40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="X40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="Y40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893284</v>
       </c>
     </row>
     <row r="41">
@@ -7393,76 +7393,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546199</v>
       </c>
       <c r="C41" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048225</v>
       </c>
       <c r="D41" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351407</v>
       </c>
       <c r="E41" t="n">
-        <v>1303.215227044376</v>
+        <v>1303.215227044385</v>
       </c>
       <c r="F41" t="n">
-        <v>894.2358041069906</v>
+        <v>894.2358041069994</v>
       </c>
       <c r="G41" t="n">
-        <v>492.3327682960356</v>
+        <v>492.3327682960444</v>
       </c>
       <c r="H41" t="n">
-        <v>140.96</v>
+        <v>140.9600000000088</v>
       </c>
       <c r="I41" t="n">
-        <v>216.5482970397704</v>
+        <v>216.5482970397792</v>
       </c>
       <c r="J41" t="n">
-        <v>675.3654425154225</v>
+        <v>1101.367131735726</v>
       </c>
       <c r="K41" t="n">
-        <v>1713.790319599031</v>
+        <v>2550.716641651434</v>
       </c>
       <c r="L41" t="n">
-        <v>2631.383042915614</v>
+        <v>3681.051378010514</v>
       </c>
       <c r="M41" t="n">
-        <v>4163.230577523946</v>
+        <v>4163.230577524017</v>
       </c>
       <c r="N41" t="n">
-        <v>4728.273641396618</v>
+        <v>4728.273641396689</v>
       </c>
       <c r="O41" t="n">
-        <v>5638.428524337362</v>
+        <v>5638.428524337432</v>
       </c>
       <c r="P41" t="n">
-        <v>6474.295852434775</v>
+        <v>6474.295852434846</v>
       </c>
       <c r="Q41" t="n">
-        <v>6931.116362236997</v>
+        <v>6931.116362237068</v>
       </c>
       <c r="R41" t="n">
-        <v>7048</v>
+        <v>7048.000000000071</v>
       </c>
       <c r="S41" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183248</v>
       </c>
       <c r="T41" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464075</v>
       </c>
       <c r="U41" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542987</v>
       </c>
       <c r="V41" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818922</v>
       </c>
       <c r="W41" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908874</v>
       </c>
       <c r="X41" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665775</v>
       </c>
       <c r="Y41" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430618</v>
       </c>
     </row>
     <row r="42">
@@ -7472,76 +7472,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2287.112034235904</v>
+        <v>2287.112034235912</v>
       </c>
       <c r="C42" t="n">
-        <v>1922.364647927298</v>
+        <v>1922.364647927307</v>
       </c>
       <c r="D42" t="n">
-        <v>1570.91243893972</v>
+        <v>1570.912438939728</v>
       </c>
       <c r="E42" t="n">
-        <v>1224.779007402434</v>
+        <v>1224.779007402443</v>
       </c>
       <c r="F42" t="n">
-        <v>881.7120959500332</v>
+        <v>881.7120959500419</v>
       </c>
       <c r="G42" t="n">
-        <v>555.8565327448407</v>
+        <v>555.8565327448495</v>
       </c>
       <c r="H42" t="n">
-        <v>250.9899876546879</v>
+        <v>250.9899876546966</v>
       </c>
       <c r="I42" t="n">
-        <v>140.96</v>
+        <v>140.9600000000088</v>
       </c>
       <c r="J42" t="n">
-        <v>558.8475295149217</v>
+        <v>558.8475295149304</v>
       </c>
       <c r="K42" t="n">
-        <v>1250.415257213079</v>
+        <v>1250.415257213087</v>
       </c>
       <c r="L42" t="n">
-        <v>2197.270784374317</v>
+        <v>2197.270784374326</v>
       </c>
       <c r="M42" t="n">
-        <v>3071.633876117176</v>
+        <v>3071.633876117185</v>
       </c>
       <c r="N42" t="n">
-        <v>4014.06020421531</v>
+        <v>4014.060204215319</v>
       </c>
       <c r="O42" t="n">
-        <v>4993.313206182049</v>
+        <v>4993.313206182057</v>
       </c>
       <c r="P42" t="n">
-        <v>5699.926775368536</v>
+        <v>5699.926775368544</v>
       </c>
       <c r="Q42" t="n">
-        <v>5925.707874249716</v>
+        <v>5925.707874249724</v>
       </c>
       <c r="R42" t="n">
-        <v>5571.538498249245</v>
+        <v>5571.538498249253</v>
       </c>
       <c r="S42" t="n">
-        <v>5159.222422432123</v>
+        <v>5159.222422432131</v>
       </c>
       <c r="T42" t="n">
-        <v>4762.564674070616</v>
+        <v>4762.564674070624</v>
       </c>
       <c r="U42" t="n">
-        <v>4358.520619043174</v>
+        <v>4358.520619043182</v>
       </c>
       <c r="V42" t="n">
-        <v>3939.822975415375</v>
+        <v>3939.822975415384</v>
       </c>
       <c r="W42" t="n">
-        <v>3503.082427021609</v>
+        <v>3503.082427021618</v>
       </c>
       <c r="X42" t="n">
-        <v>3078.978649804046</v>
+        <v>3078.978649804054</v>
       </c>
       <c r="Y42" t="n">
-        <v>2675.553000545324</v>
+        <v>2675.553000545333</v>
       </c>
     </row>
     <row r="43">
@@ -7551,76 +7551,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000088</v>
       </c>
       <c r="C43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000088</v>
       </c>
       <c r="D43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000088</v>
       </c>
       <c r="E43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000088</v>
       </c>
       <c r="F43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000088</v>
       </c>
       <c r="G43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000088</v>
       </c>
       <c r="H43" t="n">
-        <v>140.96</v>
+        <v>140.9600000000088</v>
       </c>
       <c r="I43" t="n">
-        <v>140.96</v>
+        <v>140.9600000000088</v>
       </c>
       <c r="J43" t="n">
-        <v>290.4466099967136</v>
+        <v>290.4466099967223</v>
       </c>
       <c r="K43" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="L43" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="M43" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="N43" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="O43" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="P43" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="Q43" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="R43" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="S43" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="T43" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="U43" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="V43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000088</v>
       </c>
       <c r="W43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000088</v>
       </c>
       <c r="X43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000088</v>
       </c>
       <c r="Y43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000088</v>
       </c>
     </row>
     <row r="44">
@@ -7630,76 +7630,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2580.161715518833</v>
+        <v>2580.161715518842</v>
       </c>
       <c r="C44" t="n">
-        <v>2126.146990020859</v>
+        <v>2126.146990020869</v>
       </c>
       <c r="D44" t="n">
-        <v>1711.662994324041</v>
+        <v>1711.66299432405</v>
       </c>
       <c r="E44" t="n">
-        <v>1303.215227044376</v>
+        <v>1303.215227044385</v>
       </c>
       <c r="F44" t="n">
-        <v>894.2358041069906</v>
+        <v>894.2358041069994</v>
       </c>
       <c r="G44" t="n">
-        <v>492.3327682960356</v>
+        <v>492.3327682960444</v>
       </c>
       <c r="H44" t="n">
-        <v>140.96</v>
+        <v>140.9600000000088</v>
       </c>
       <c r="I44" t="n">
-        <v>216.5482970397704</v>
+        <v>216.5482970397792</v>
       </c>
       <c r="J44" t="n">
-        <v>675.3654425154225</v>
+        <v>675.3654425154314</v>
       </c>
       <c r="K44" t="n">
-        <v>2124.71495243113</v>
+        <v>1415.008586083271</v>
       </c>
       <c r="L44" t="n">
-        <v>3681.051378010443</v>
+        <v>2819.179224663062</v>
       </c>
       <c r="M44" t="n">
-        <v>4163.230577523946</v>
+        <v>3301.358424176565</v>
       </c>
       <c r="N44" t="n">
-        <v>4728.273641396618</v>
+        <v>3866.401488049237</v>
       </c>
       <c r="O44" t="n">
-        <v>5638.428524337362</v>
+        <v>4776.556370989981</v>
       </c>
       <c r="P44" t="n">
-        <v>6474.295852434775</v>
+        <v>6474.295852434777</v>
       </c>
       <c r="Q44" t="n">
-        <v>6931.116362236997</v>
+        <v>6931.116362236999</v>
       </c>
       <c r="R44" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S44" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.746993155892</v>
       </c>
       <c r="T44" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.115762436719</v>
       </c>
       <c r="U44" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.81129051563</v>
       </c>
       <c r="V44" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791566</v>
       </c>
       <c r="W44" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881518</v>
       </c>
       <c r="X44" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.511963638419</v>
       </c>
       <c r="Y44" t="n">
-        <v>3067.029708403252</v>
+        <v>3067.029708403261</v>
       </c>
     </row>
     <row r="45">
@@ -7709,76 +7709,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2287.112034235904</v>
+        <v>2287.112034235912</v>
       </c>
       <c r="C45" t="n">
-        <v>1922.364647927298</v>
+        <v>1922.364647927307</v>
       </c>
       <c r="D45" t="n">
-        <v>1570.91243893972</v>
+        <v>1570.912438939728</v>
       </c>
       <c r="E45" t="n">
-        <v>1224.779007402434</v>
+        <v>1224.779007402443</v>
       </c>
       <c r="F45" t="n">
-        <v>881.7120959500332</v>
+        <v>881.7120959500419</v>
       </c>
       <c r="G45" t="n">
-        <v>555.8565327448407</v>
+        <v>555.8565327448495</v>
       </c>
       <c r="H45" t="n">
-        <v>250.9899876546879</v>
+        <v>250.9899876546966</v>
       </c>
       <c r="I45" t="n">
-        <v>140.96</v>
+        <v>140.9600000000088</v>
       </c>
       <c r="J45" t="n">
-        <v>558.8475295149217</v>
+        <v>558.8475295149304</v>
       </c>
       <c r="K45" t="n">
-        <v>1250.415257213079</v>
+        <v>1250.415257213087</v>
       </c>
       <c r="L45" t="n">
-        <v>2197.270784374317</v>
+        <v>2197.270784374326</v>
       </c>
       <c r="M45" t="n">
-        <v>3071.633876117176</v>
+        <v>3071.633876117185</v>
       </c>
       <c r="N45" t="n">
-        <v>4014.06020421531</v>
+        <v>4014.060204215319</v>
       </c>
       <c r="O45" t="n">
-        <v>4993.313206182049</v>
+        <v>4993.313206182057</v>
       </c>
       <c r="P45" t="n">
-        <v>5699.926775368536</v>
+        <v>5699.926775368544</v>
       </c>
       <c r="Q45" t="n">
-        <v>5925.707874249716</v>
+        <v>5925.707874249724</v>
       </c>
       <c r="R45" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372917</v>
       </c>
       <c r="S45" t="n">
-        <v>5159.222422432123</v>
+        <v>5159.222422432131</v>
       </c>
       <c r="T45" t="n">
-        <v>4762.564674070616</v>
+        <v>4762.564674070624</v>
       </c>
       <c r="U45" t="n">
-        <v>4358.520619043174</v>
+        <v>4358.520619043182</v>
       </c>
       <c r="V45" t="n">
-        <v>3939.822975415375</v>
+        <v>3939.822975415384</v>
       </c>
       <c r="W45" t="n">
-        <v>3503.082427021609</v>
+        <v>3503.082427021618</v>
       </c>
       <c r="X45" t="n">
-        <v>3078.978649804046</v>
+        <v>3078.978649804054</v>
       </c>
       <c r="Y45" t="n">
-        <v>2675.553000545324</v>
+        <v>2675.553000545333</v>
       </c>
     </row>
     <row r="46">
@@ -7788,76 +7788,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>140.96</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="C46" t="n">
-        <v>140.96</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="D46" t="n">
-        <v>140.96</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="E46" t="n">
-        <v>140.96</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="F46" t="n">
-        <v>140.96</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="G46" t="n">
-        <v>140.96</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="H46" t="n">
-        <v>140.96</v>
+        <v>140.9600000000088</v>
       </c>
       <c r="I46" t="n">
-        <v>140.96</v>
+        <v>140.9600000000088</v>
       </c>
       <c r="J46" t="n">
-        <v>290.4466099967136</v>
+        <v>290.4466099967223</v>
       </c>
       <c r="K46" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="L46" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="M46" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="N46" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="O46" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="P46" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="Q46" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="R46" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="S46" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="T46" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="U46" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="V46" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="W46" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="X46" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893284</v>
       </c>
       <c r="Y46" t="n">
-        <v>140.96</v>
+        <v>307.8416045893284</v>
       </c>
     </row>
   </sheetData>
@@ -7984,13 +7984,13 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J2" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>315.9139665186112</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>645.1956588512439</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>294.54111633436</v>
@@ -8224,10 +8224,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>721.547474042929</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8239,10 +8239,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>870.5779326741233</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>567.8446588919048</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>294.54111633436</v>
@@ -8461,10 +8461,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L8" t="n">
-        <v>822.5705182964548</v>
+        <v>721.547474042929</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8479,7 +8479,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>294.54111633436</v>
@@ -8695,19 +8695,19 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J11" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>265.4073538855534</v>
       </c>
       <c r="M11" t="n">
-        <v>931.7660397881849</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -8935,13 +8935,13 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>301.7997308240091</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>645.1956588512421</v>
       </c>
       <c r="M14" t="n">
-        <v>1060.271045550332</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9172,13 +9172,13 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>835.138663316583</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>4.473091295036568</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9187,13 +9187,13 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>567.8446588919048</v>
       </c>
       <c r="R17" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9412,7 +9412,7 @@
         <v>716.8751175230994</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>29.3435855828875</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9421,13 +9421,13 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>645.195658851756</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R20" t="n">
         <v>294.54111633436</v>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>265.4073538855536</v>
+        <v>491.4928437014125</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9655,13 +9655,13 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1096.663422488788</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9880,13 +9880,13 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K26" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>645.1956588512421</v>
+        <v>61.1881071144951</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10117,13 +10117,13 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K29" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>645.1956588512421</v>
+        <v>61.1881071144951</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10357,10 +10357,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>526.9321130577587</v>
+        <v>526.932113058083</v>
       </c>
       <c r="L32" t="n">
-        <v>835.1386633165826</v>
+        <v>835.1386633166921</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10594,13 +10594,13 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>491.4928437002177</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>301.799730824443</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1060.271045550332</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>870.5779326741233</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10825,16 +10825,16 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>645.1956588514267</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10846,13 +10846,13 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>870.5779326741233</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>246.5337019566904</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11065,16 +11065,16 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K41" t="n">
-        <v>301.7997308240091</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>214.8909222651482</v>
       </c>
       <c r="M41" t="n">
-        <v>1060.271045550332</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11305,10 +11305,10 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>645.1956588512421</v>
+        <v>491.4928437002109</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -23272,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23314,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>121.9010117936523</v>
+        <v>287.1138003370787</v>
       </c>
       <c r="C13" t="n">
         <v>272.7252466480447</v>
@@ -23484,7 +23484,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W13" t="n">
-        <v>226.3728098387097</v>
+        <v>61.16002129528329</v>
       </c>
       <c r="X13" t="n">
         <v>247.4436454301076</v>
@@ -23500,7 +23500,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23518,7 +23518,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23676,10 +23676,10 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H16" t="n">
-        <v>137.5385800635563</v>
+        <v>40.13443591884794</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23913,10 +23913,10 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H19" t="n">
-        <v>137.5385800635563</v>
+        <v>40.13443591884794</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23992,7 +23992,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1.38834429247396</v>
+        <v>1.38834429178246</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24229,7 +24229,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1.388344291806334</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24262,7 +24262,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24338,10 +24338,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24387,10 +24387,10 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H25" t="n">
-        <v>137.5385800635563</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W25" t="n">
-        <v>226.3728098387097</v>
+        <v>61.16002129528326</v>
       </c>
       <c r="X25" t="n">
         <v>247.4436454301076</v>
@@ -24448,7 +24448,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1.388344292553313</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24514,7 +24514,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>1.38834429297799</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24624,10 +24624,10 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H28" t="n">
-        <v>205.3472244622743</v>
+        <v>40.13443591884794</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>198.7676812603561</v>
       </c>
       <c r="U28" t="n">
-        <v>83.00604195770714</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V28" t="n">
         <v>199.1703102162162</v>
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.388344290787188</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24739,7 +24739,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>1.388344290518262</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24812,10 +24812,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>1.533699953999928</v>
       </c>
       <c r="S30" t="n">
-        <v>1.533699953843495</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24861,7 +24861,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H31" t="n">
-        <v>205.3472244622743</v>
+        <v>40.13443591884794</v>
       </c>
       <c r="I31" t="n">
         <v>97.40414414470841</v>
@@ -24903,7 +24903,7 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V31" t="n">
-        <v>33.9575216727898</v>
+        <v>199.1703102162162</v>
       </c>
       <c r="W31" t="n">
         <v>226.3728098387097</v>
@@ -24973,7 +24973,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>1.388344292553313</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24982,7 +24982,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>1.388344292978104</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25098,7 +25098,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H34" t="n">
-        <v>205.3472244622743</v>
+        <v>137.5385800635563</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>198.7676812603561</v>
       </c>
       <c r="U34" t="n">
-        <v>83.00604195770714</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V34" t="n">
         <v>199.1703102162162</v>
@@ -25174,10 +25174,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1.388344292552858</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25338,7 +25338,7 @@
         <v>205.3472244622743</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25347,10 +25347,10 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M37" t="n">
-        <v>71.69490663702095</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N37" t="n">
         <v>168.0209277307011</v>
@@ -25380,7 +25380,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W37" t="n">
-        <v>226.3728098387097</v>
+        <v>61.16002129528329</v>
       </c>
       <c r="X37" t="n">
         <v>247.4436454301076</v>
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25414,7 +25414,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1.388344292797797</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>1.38834429291677</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25684,7 +25684,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25809,7 +25809,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H43" t="n">
-        <v>40.13443591884794</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I43" t="n">
         <v>97.40414414470841</v>
@@ -25851,7 +25851,7 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V43" t="n">
-        <v>199.1703102162162</v>
+        <v>33.9575216727898</v>
       </c>
       <c r="W43" t="n">
         <v>226.3728098387097</v>
@@ -25921,7 +25921,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>1.388344292985494</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25939,7 +25939,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>1.388344292978161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25997,10 +25997,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26046,7 +26046,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H46" t="n">
-        <v>205.3472244622743</v>
+        <v>40.13443591884794</v>
       </c>
       <c r="I46" t="n">
         <v>97.40414414470841</v>
@@ -26097,7 +26097,7 @@
         <v>247.4436454301076</v>
       </c>
       <c r="Y46" t="n">
-        <v>122.252564306036</v>
+        <v>287.4653528494624</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15184.78357961384</v>
+        <v>1253038.088453473</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30192.00001986756</v>
+        <v>2480930.702777752</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>45199.21646012127</v>
+        <v>3708823.317102033</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>62279.9446026502</v>
+        <v>4808665.190726486</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>79360.67274517912</v>
+        <v>5908507.064350938</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>96441.40088770805</v>
+        <v>7008348.937975383</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>113522.129030237</v>
+        <v>8108190.811599931</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>130602.8571727659</v>
+        <v>9208032.685224464</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>147683.5853152948</v>
+        <v>10307874.55884894</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>164764.3134578219</v>
+        <v>11407716.43247372</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>181845.0416003508</v>
+        <v>12507558.3060982</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>198925.7697428797</v>
+        <v>13607400.17972268</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>216006.4978854088</v>
+        <v>14707242.05334716</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>233087.226027938</v>
+        <v>15807083.92697162</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>250167.9541704671</v>
+        <v>16906925.80059608</v>
       </c>
     </row>
   </sheetData>
@@ -26319,49 +26319,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>976017.2062577604</v>
+        <v>976017.2062577606</v>
       </c>
       <c r="C2" t="n">
-        <v>976017.2062577606</v>
+        <v>976017.2062577605</v>
       </c>
       <c r="D2" t="n">
-        <v>976017.2062577608</v>
+        <v>976017.2062577605</v>
       </c>
       <c r="E2" t="n">
         <v>874233.2841630247</v>
       </c>
       <c r="F2" t="n">
-        <v>874233.2841630249</v>
+        <v>874233.284163025</v>
       </c>
       <c r="G2" t="n">
-        <v>874233.2841630249</v>
+        <v>874233.284163025</v>
       </c>
       <c r="H2" t="n">
-        <v>874233.2841630559</v>
+        <v>874233.2841630987</v>
       </c>
       <c r="I2" t="n">
-        <v>874233.2841630247</v>
+        <v>874233.2841630972</v>
       </c>
       <c r="J2" t="n">
-        <v>874233.2841630249</v>
+        <v>874233.2841630511</v>
       </c>
       <c r="K2" t="n">
-        <v>874233.2841632825</v>
+        <v>874233.2841632942</v>
       </c>
       <c r="L2" t="n">
-        <v>874233.2841630249</v>
+        <v>874233.2841630512</v>
       </c>
       <c r="M2" t="n">
-        <v>874233.2841630249</v>
+        <v>874233.2841630509</v>
       </c>
       <c r="N2" t="n">
-        <v>874233.2841630249</v>
+        <v>874233.284163036</v>
       </c>
       <c r="O2" t="n">
-        <v>874233.2841630249</v>
+        <v>874233.2841630286</v>
       </c>
       <c r="P2" t="n">
-        <v>874233.2841630246</v>
+        <v>874233.2841630244</v>
       </c>
     </row>
     <row r="3">
@@ -26392,10 +26392,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.062071532942355e-07</v>
       </c>
       <c r="J3" t="n">
-        <v>620224</v>
+        <v>620223.9999999324</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>101648.5408862317</v>
+        <v>101648.5408862316</v>
       </c>
       <c r="C4" t="n">
         <v>101346.5898317505</v>
@@ -26438,34 +26438,34 @@
         <v>26356.19966309947</v>
       </c>
       <c r="G4" t="n">
-        <v>26356.19966309947</v>
+        <v>26356.19966309946</v>
       </c>
       <c r="H4" t="n">
-        <v>26356.19966310362</v>
+        <v>26356.19966310932</v>
       </c>
       <c r="I4" t="n">
-        <v>26356.19966309947</v>
+        <v>26356.19966310912</v>
       </c>
       <c r="J4" t="n">
-        <v>26356.19966309947</v>
+        <v>26356.19966310298</v>
       </c>
       <c r="K4" t="n">
-        <v>26356.1996632837</v>
+        <v>26356.19966327666</v>
       </c>
       <c r="L4" t="n">
-        <v>26356.19966309946</v>
+        <v>26356.19966310297</v>
       </c>
       <c r="M4" t="n">
-        <v>26356.19966309946</v>
+        <v>26356.19966310297</v>
       </c>
       <c r="N4" t="n">
-        <v>26356.19966309945</v>
+        <v>26356.19966310096</v>
       </c>
       <c r="O4" t="n">
-        <v>26356.19966309947</v>
+        <v>26356.19966309998</v>
       </c>
       <c r="P4" t="n">
-        <v>26356.19966309947</v>
+        <v>26356.19966309941</v>
       </c>
     </row>
     <row r="5">
@@ -26496,28 +26496,28 @@
         <v>138979.4</v>
       </c>
       <c r="I5" t="n">
-        <v>138979.4</v>
+        <v>138979.4000000183</v>
       </c>
       <c r="J5" t="n">
-        <v>138979.4</v>
+        <v>138979.4000000067</v>
       </c>
       <c r="K5" t="n">
-        <v>138979.4</v>
+        <v>138979.4000000067</v>
       </c>
       <c r="L5" t="n">
-        <v>138979.4</v>
+        <v>138979.4000000067</v>
       </c>
       <c r="M5" t="n">
-        <v>138979.4</v>
+        <v>138979.4000000067</v>
       </c>
       <c r="N5" t="n">
-        <v>138979.4</v>
+        <v>138979.4000000067</v>
       </c>
       <c r="O5" t="n">
-        <v>138979.4</v>
+        <v>138979.4000000067</v>
       </c>
       <c r="P5" t="n">
-        <v>138979.4</v>
+        <v>138979.4000000067</v>
       </c>
     </row>
     <row r="6">
@@ -26530,10 +26530,10 @@
         <v>-1342937.334628471</v>
       </c>
       <c r="C6" t="n">
-        <v>702063.6164260102</v>
+        <v>702063.61642601</v>
       </c>
       <c r="D6" t="n">
-        <v>702365.9770959433</v>
+        <v>702365.9770959431</v>
       </c>
       <c r="E6" t="n">
         <v>708897.6844999252</v>
@@ -26545,31 +26545,31 @@
         <v>708897.6844999255</v>
       </c>
       <c r="H6" t="n">
-        <v>708897.6844999524</v>
+        <v>708897.6844999894</v>
       </c>
       <c r="I6" t="n">
-        <v>708897.6844999252</v>
+        <v>708897.6844998635</v>
       </c>
       <c r="J6" t="n">
-        <v>88673.68449992538</v>
+        <v>88673.68450000905</v>
       </c>
       <c r="K6" t="n">
-        <v>708897.6844999988</v>
+        <v>708897.6845000109</v>
       </c>
       <c r="L6" t="n">
-        <v>708897.6844999255</v>
+        <v>708897.6844999415</v>
       </c>
       <c r="M6" t="n">
-        <v>708897.6844999255</v>
+        <v>708897.6844999413</v>
       </c>
       <c r="N6" t="n">
-        <v>708897.6844999255</v>
+        <v>708897.6844999284</v>
       </c>
       <c r="O6" t="n">
-        <v>708897.6844999255</v>
+        <v>708897.684499922</v>
       </c>
       <c r="P6" t="n">
-        <v>708897.6844999252</v>
+        <v>708897.6844999184</v>
       </c>
     </row>
   </sheetData>
@@ -26940,28 +26940,28 @@
         <v>1762</v>
       </c>
       <c r="I4" t="n">
-        <v>1762</v>
+        <v>1762.000000000302</v>
       </c>
       <c r="J4" t="n">
-        <v>1762</v>
+        <v>1762.00000000011</v>
       </c>
       <c r="K4" t="n">
-        <v>1762</v>
+        <v>1762.00000000011</v>
       </c>
       <c r="L4" t="n">
-        <v>1762</v>
+        <v>1762.00000000011</v>
       </c>
       <c r="M4" t="n">
-        <v>1762</v>
+        <v>1762.00000000011</v>
       </c>
       <c r="N4" t="n">
-        <v>1762</v>
+        <v>1762.00000000011</v>
       </c>
       <c r="O4" t="n">
-        <v>1762</v>
+        <v>1762.00000000011</v>
       </c>
       <c r="P4" t="n">
-        <v>1762</v>
+        <v>1762.00000000011</v>
       </c>
     </row>
   </sheetData>
@@ -27037,34 +27037,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27144,28 +27144,28 @@
         <v>1762</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>2.946225945858962e-10</v>
       </c>
       <c r="J4" t="n">
-        <v>1762</v>
+        <v>1761.999999999815</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27559,7 +27559,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1.388344292978275</v>
+        <v>1.388344292976512</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>274.3828559677419</v>
       </c>
       <c r="G4" t="n">
-        <v>242.4092826775956</v>
+        <v>393.5743186585793</v>
       </c>
       <c r="H4" t="n">
         <v>205.3472244622743</v>
@@ -27723,7 +27723,7 @@
         <v>198.7676812603561</v>
       </c>
       <c r="U4" t="n">
-        <v>301.9797223374088</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V4" t="n">
         <v>199.1703102162162</v>
@@ -27796,7 +27796,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27811,7 +27811,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>1.38834429297799</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27842,10 +27842,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1.533699957573049</v>
       </c>
       <c r="I6" t="n">
-        <v>1.533699957573035</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>274.3828559677419</v>
       </c>
       <c r="G7" t="n">
-        <v>242.4092826775956</v>
+        <v>393.5743186585793</v>
       </c>
       <c r="H7" t="n">
         <v>205.3472244622743</v>
@@ -27957,7 +27957,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T7" t="n">
-        <v>349.9327172413398</v>
+        <v>198.7676812603561</v>
       </c>
       <c r="U7" t="n">
         <v>150.8146863564251</v>
@@ -28033,10 +28033,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T8" t="n">
-        <v>1.38834429297799</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -28140,7 +28140,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>287.1138003370787</v>
+        <v>400</v>
       </c>
       <c r="C10" t="n">
         <v>272.7252466480447</v>
@@ -28152,7 +28152,7 @@
         <v>280.9809048369565</v>
       </c>
       <c r="F10" t="n">
-        <v>274.3828559677419</v>
+        <v>312.6616922858043</v>
       </c>
       <c r="G10" t="n">
         <v>242.4092826775956</v>
@@ -28191,10 +28191,10 @@
         <v>400</v>
       </c>
       <c r="S10" t="n">
-        <v>400</v>
+        <v>316.45975839138</v>
       </c>
       <c r="T10" t="n">
-        <v>266.3924756327198</v>
+        <v>198.7676812603561</v>
       </c>
       <c r="U10" t="n">
         <v>150.8146863564251</v>
@@ -29641,7 +29641,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.564330887049437e-10</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>1.564330887049437e-10</v>
@@ -29738,7 +29738,7 @@
         <v>1.564330887049437e-10</v>
       </c>
       <c r="H30" t="n">
-        <v>1.564330887049437e-10</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>1.564330887049437e-10</v>
@@ -34828,13 +34828,13 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J2" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K2" t="n">
-        <v>1063.028252950772</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L2" t="n">
-        <v>926.861336683417</v>
+        <v>1572.056995534661</v>
       </c>
       <c r="M2" t="n">
         <v>487.0496964782857</v>
@@ -34849,7 +34849,7 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q2" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R2" t="n">
         <v>118.0642805686905</v>
@@ -34977,7 +34977,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>151.1650359809837</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -35019,7 +35019,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>151.1650359809837</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -35068,10 +35068,10 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K5" t="n">
-        <v>747.1142864321608</v>
+        <v>1463.989403955261</v>
       </c>
       <c r="L5" t="n">
-        <v>926.8613366834174</v>
+        <v>1648.408810726346</v>
       </c>
       <c r="M5" t="n">
         <v>487.0496964782857</v>
@@ -35083,10 +35083,10 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P5" t="n">
-        <v>1714.888365095753</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q5" t="n">
-        <v>1029.279517277987</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R5" t="n">
         <v>118.0642805686905</v>
@@ -35214,7 +35214,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>151.1650359809837</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -35253,7 +35253,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>151.1650359809837</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -35305,10 +35305,10 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K8" t="n">
-        <v>747.1142864321608</v>
+        <v>1463.989403955261</v>
       </c>
       <c r="L8" t="n">
-        <v>1749.431854979872</v>
+        <v>1648.408810726346</v>
       </c>
       <c r="M8" t="n">
         <v>487.0496964782857</v>
@@ -35323,7 +35323,7 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q8" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R8" t="n">
         <v>118.0642805686905</v>
@@ -35436,7 +35436,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>112.8861996629213</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -35448,7 +35448,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>38.27883631806233</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -35487,10 +35487,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>83.54024160861997</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>67.62479437236371</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -35539,19 +35539,19 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J11" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K11" t="n">
         <v>747.114286432161</v>
       </c>
       <c r="L11" t="n">
-        <v>926.861336683417</v>
+        <v>1192.268690568971</v>
       </c>
       <c r="M11" t="n">
-        <v>1418.815736266471</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N11" t="n">
-        <v>570.7505695683558</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O11" t="n">
         <v>919.3483666068121</v>
@@ -35779,13 +35779,13 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K14" t="n">
-        <v>1048.91401725617</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L14" t="n">
-        <v>926.8613366834172</v>
+        <v>1572.05699553466</v>
       </c>
       <c r="M14" t="n">
-        <v>1547.320742028618</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N14" t="n">
         <v>570.7505695683558</v>
@@ -36016,13 +36016,13 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K17" t="n">
-        <v>1463.989403955261</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L17" t="n">
-        <v>1762</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M17" t="n">
-        <v>491.5227877733222</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N17" t="n">
         <v>570.7505695683558</v>
@@ -36031,13 +36031,13 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P17" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q17" t="n">
-        <v>461.4348583860824</v>
+        <v>1029.279517277987</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36256,7 +36256,7 @@
         <v>1463.98940395526</v>
       </c>
       <c r="L20" t="n">
-        <v>926.861336683417</v>
+        <v>956.2049222663049</v>
       </c>
       <c r="M20" t="n">
         <v>487.0496964782857</v>
@@ -36265,13 +36265,13 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O20" t="n">
-        <v>1564.544025458568</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P20" t="n">
         <v>844.3104324216301</v>
       </c>
       <c r="Q20" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R20" t="n">
         <v>118.0642805686905</v>
@@ -36490,7 +36490,7 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K23" t="n">
-        <v>1012.521640317714</v>
+        <v>1238.607130133573</v>
       </c>
       <c r="L23" t="n">
         <v>926.8613366834172</v>
@@ -36499,13 +36499,13 @@
         <v>487.0496964782857</v>
       </c>
       <c r="N23" t="n">
-        <v>1667.413992057144</v>
+        <v>570.7505695683558</v>
       </c>
       <c r="O23" t="n">
         <v>919.3483666068121</v>
       </c>
       <c r="P23" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q23" t="n">
         <v>461.4348583860824</v>
@@ -36724,13 +36724,13 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J26" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K26" t="n">
-        <v>1463.98940395526</v>
+        <v>747.1142864321607</v>
       </c>
       <c r="L26" t="n">
-        <v>1572.05699553466</v>
+        <v>988.0494437979123</v>
       </c>
       <c r="M26" t="n">
         <v>487.0496964782857</v>
@@ -36742,7 +36742,7 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P26" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q26" t="n">
         <v>461.4348583860824</v>
@@ -36961,13 +36961,13 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J29" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K29" t="n">
-        <v>1463.98940395526</v>
+        <v>747.1142864321607</v>
       </c>
       <c r="L29" t="n">
-        <v>1572.05699553466</v>
+        <v>988.0494437979123</v>
       </c>
       <c r="M29" t="n">
         <v>487.0496964782857</v>
@@ -36979,7 +36979,7 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P29" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q29" t="n">
         <v>461.4348583860824</v>
@@ -37201,10 +37201,10 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K32" t="n">
-        <v>1274.04639948992</v>
+        <v>1274.046399490244</v>
       </c>
       <c r="L32" t="n">
-        <v>1762</v>
+        <v>1762.00000000011</v>
       </c>
       <c r="M32" t="n">
         <v>487.0496964782857</v>
@@ -37438,13 +37438,13 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K35" t="n">
-        <v>1238.607130132378</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L35" t="n">
-        <v>926.8613366834172</v>
+        <v>1228.66106750786</v>
       </c>
       <c r="M35" t="n">
-        <v>487.0496964782857</v>
+        <v>1547.320742028618</v>
       </c>
       <c r="N35" t="n">
         <v>570.7505695683558</v>
@@ -37453,7 +37453,7 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P35" t="n">
-        <v>1714.888365095753</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q35" t="n">
         <v>461.4348583860824</v>
@@ -37669,16 +37669,16 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J38" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K38" t="n">
-        <v>747.1142864321608</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L38" t="n">
-        <v>926.8613366834174</v>
+        <v>1572.056995534844</v>
       </c>
       <c r="M38" t="n">
         <v>487.0496964782857</v>
@@ -37690,13 +37690,13 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P38" t="n">
-        <v>1714.888365095753</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q38" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R38" t="n">
-        <v>70.05686619102084</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37909,16 +37909,16 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J41" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K41" t="n">
-        <v>1048.91401725617</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L41" t="n">
-        <v>926.8613366834172</v>
+        <v>1141.752258948566</v>
       </c>
       <c r="M41" t="n">
-        <v>1547.320742028618</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N41" t="n">
         <v>570.7505695683558</v>
@@ -38149,10 +38149,10 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K44" t="n">
-        <v>1463.98940395526</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L44" t="n">
-        <v>1572.05699553466</v>
+        <v>1418.354180383628</v>
       </c>
       <c r="M44" t="n">
         <v>487.0496964782857</v>
@@ -38164,7 +38164,7 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P44" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q44" t="n">
         <v>461.4348583860824</v>
